--- a/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Filename</t>
   </si>
@@ -131,7 +131,7 @@
     <t>IndividualNonHumanTemplate</t>
   </si>
   <si>
-    <t>ILO</t>
+    <t>CDCP</t>
   </si>
   <si>
     <t>Bird</t>
@@ -146,7 +146,7 @@
     <t>Captive</t>
   </si>
   <si>
-    <t>LC</t>
+    <t>ILO</t>
   </si>
   <si>
     <t>Human</t>
@@ -161,7 +161,7 @@
     <t>Not applicable</t>
   </si>
   <si>
-    <t>LG</t>
+    <t>LC</t>
   </si>
   <si>
     <t>Mammal</t>
@@ -170,10 +170,13 @@
     <t>Not collected</t>
   </si>
   <si>
-    <t>LLFS</t>
+    <t>LG</t>
   </si>
   <si>
     <t>Not specified</t>
+  </si>
+  <si>
+    <t>LLFS</t>
   </si>
   <si>
     <t>other</t>
@@ -27553,14 +27556,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$5</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
       <formula1>Sheet2!$H$2:$H$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
+      <formula1>Sheet2!$C$2:$C$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$11</formula1>
@@ -27691,6 +27694,9 @@
       </c>
     </row>
     <row r="6">
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
@@ -27701,56 +27707,59 @@
         <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9">
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Filename</t>
   </si>
@@ -134,7 +134,7 @@
     <t>CDCP</t>
   </si>
   <si>
-    <t>Bird</t>
+    <t>Amphibian</t>
   </si>
   <si>
     <t>Female</t>
@@ -149,7 +149,7 @@
     <t>ILO</t>
   </si>
   <si>
-    <t>Human</t>
+    <t>Bird</t>
   </si>
   <si>
     <t>Male</t>
@@ -164,7 +164,7 @@
     <t>LC</t>
   </si>
   <si>
-    <t>Mammal</t>
+    <t>Fish</t>
   </si>
   <si>
     <t>Not collected</t>
@@ -173,10 +173,16 @@
     <t>LG</t>
   </si>
   <si>
+    <t>Invertebrate</t>
+  </si>
+  <si>
     <t>Not specified</t>
   </si>
   <si>
     <t>LLFS</t>
+  </si>
+  <si>
+    <t>Mammal</t>
   </si>
   <si>
     <t>other</t>
@@ -191,13 +197,10 @@
     <t>Post-Juvenile</t>
   </si>
   <si>
-    <t>Primate</t>
-  </si>
-  <si>
     <t>Wild</t>
   </si>
   <si>
-    <t>Rodent</t>
+    <t>Reptile</t>
   </si>
 </sst>
 </file>
@@ -27681,7 +27684,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>26</v>
@@ -27690,76 +27693,76 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
   <si>
     <t>Filename</t>
   </si>
@@ -137,6 +137,9 @@
     <t>Amphibian</t>
   </si>
   <si>
+    <t>Accipiter cooperii</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>Bird</t>
+  </si>
+  <si>
+    <t>Acomys cahirinus</t>
   </si>
   <si>
     <t>Male</t>
@@ -167,6 +173,9 @@
     <t>Fish</t>
   </si>
   <si>
+    <t>Acomys russatus</t>
+  </si>
+  <si>
     <t>Not collected</t>
   </si>
   <si>
@@ -174,6 +183,9 @@
   </si>
   <si>
     <t>Invertebrate</t>
+  </si>
+  <si>
+    <t>Actitis macularius</t>
   </si>
   <si>
     <t>Not specified</t>
@@ -185,10 +197,19 @@
     <t>Mammal</t>
   </si>
   <si>
+    <t>Aix sponsa</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
+    <t>Anas acuta</t>
+  </si>
+  <si>
     <t>stranded</t>
+  </si>
+  <si>
+    <t>Anas carolinensis</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -197,10 +218,394 @@
     <t>Post-Juvenile</t>
   </si>
   <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
     <t>Wild</t>
   </si>
   <si>
     <t>Reptile</t>
+  </si>
+  <si>
+    <t>Antigone canadensis</t>
+  </si>
+  <si>
+    <t>Archilochus colubris</t>
+  </si>
+  <si>
+    <t>Artibeus jamaicensis</t>
+  </si>
+  <si>
+    <t>Baeolophus bicolor</t>
+  </si>
+  <si>
+    <t>Balaena mysticetus</t>
+  </si>
+  <si>
+    <t>Blarina brevicauda</t>
+  </si>
+  <si>
+    <t>Bombycilla cedrorum</t>
+  </si>
+  <si>
+    <t>Bonasa umbellus</t>
+  </si>
+  <si>
+    <t>Bos taurus</t>
+  </si>
+  <si>
+    <t>Branta canadensis</t>
+  </si>
+  <si>
+    <t>Bubo virginianus</t>
+  </si>
+  <si>
+    <t>Buteo jamaicensis</t>
+  </si>
+  <si>
+    <t>Buteo lineatus</t>
+  </si>
+  <si>
+    <t>Canis latrans</t>
+  </si>
+  <si>
+    <t>Cardinalis cardinalis</t>
+  </si>
+  <si>
+    <t>Castor canadensis</t>
+  </si>
+  <si>
+    <t>Cavia porcellus</t>
+  </si>
+  <si>
+    <t>Charadrius vociferus</t>
+  </si>
+  <si>
+    <t>Chinchilla lanigera</t>
+  </si>
+  <si>
+    <t>Columba livia</t>
+  </si>
+  <si>
+    <t>Condylura cristata</t>
+  </si>
+  <si>
+    <t>Corvus brachyrhynchos</t>
+  </si>
+  <si>
+    <t>Cricetomys ansorgei</t>
+  </si>
+  <si>
+    <t>Cricetulus barabensis</t>
+  </si>
+  <si>
+    <t>Cricetulus griseus</t>
+  </si>
+  <si>
+    <t>Cryptomys damarensis</t>
+  </si>
+  <si>
+    <t>Cuniculus paca</t>
+  </si>
+  <si>
+    <t>Cyanocitta cristata</t>
+  </si>
+  <si>
+    <t>Cygnus olor</t>
+  </si>
+  <si>
+    <t>Dryobates pubescens</t>
+  </si>
+  <si>
+    <t>Dumetella carolinensis</t>
+  </si>
+  <si>
+    <t>Ellobius lutescens</t>
+  </si>
+  <si>
+    <t>Ellobius talpinus</t>
+  </si>
+  <si>
+    <t>Eonycteris spelaea</t>
+  </si>
+  <si>
+    <t>Eptesicus fuscus</t>
+  </si>
+  <si>
+    <t>Equus caballus</t>
+  </si>
+  <si>
+    <t>Eremophila alpestris</t>
+  </si>
+  <si>
+    <t>Fukomys damarensis</t>
+  </si>
+  <si>
+    <t>Haemorhous mexicanus</t>
+  </si>
+  <si>
+    <t>Heterocephalus glaber</t>
+  </si>
+  <si>
+    <t>Hirundo rustica</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Hydrochoerus hydrochaeris</t>
+  </si>
+  <si>
+    <t>Hydroprogne caspia</t>
+  </si>
+  <si>
+    <t>Hylocichla mustelina</t>
+  </si>
+  <si>
+    <t>Icteria virens</t>
+  </si>
+  <si>
+    <t>Larus argentatus</t>
+  </si>
+  <si>
+    <t>Larus delawarensis</t>
+  </si>
+  <si>
+    <t>Macaca fascicularis</t>
+  </si>
+  <si>
+    <t>Macaca mulatta</t>
+  </si>
+  <si>
+    <t>Mareca strepera</t>
+  </si>
+  <si>
+    <t>Marmota monax</t>
+  </si>
+  <si>
+    <t>Melanerpes carolinus</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>Melospiza melodia</t>
+  </si>
+  <si>
+    <t>Meriones unguiculatus</t>
+  </si>
+  <si>
+    <t>Mesocricetus auratus</t>
+  </si>
+  <si>
+    <t>Microtus pennsylvanicus</t>
+  </si>
+  <si>
+    <t>Mimus polyglottos</t>
+  </si>
+  <si>
+    <t>Molothrus ater</t>
+  </si>
+  <si>
+    <t>Multi-species</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Myocastor coypus</t>
+  </si>
+  <si>
+    <t>Myotis lucifugus</t>
+  </si>
+  <si>
+    <t>Nannospalax galili</t>
+  </si>
+  <si>
+    <t>Neosciurus carolinensis</t>
+  </si>
+  <si>
+    <t>Neotoma cinerea</t>
+  </si>
+  <si>
+    <t>Neotoma floridana</t>
+  </si>
+  <si>
+    <t>Not provided</t>
+  </si>
+  <si>
+    <t>Octodon degus</t>
+  </si>
+  <si>
+    <t>Odocoileus virginianus</t>
+  </si>
+  <si>
+    <t>Ondatra zibethicus</t>
+  </si>
+  <si>
+    <t>Pan troglodytes</t>
+  </si>
+  <si>
+    <t>Papio anubis</t>
+  </si>
+  <si>
+    <t>Passer domesticus</t>
+  </si>
+  <si>
+    <t>Passerina caerulea</t>
+  </si>
+  <si>
+    <t>Passerina cyanea</t>
+  </si>
+  <si>
+    <t>Peromyscus gossypinus</t>
+  </si>
+  <si>
+    <t>Peromyscus leucopus</t>
+  </si>
+  <si>
+    <t>Peromyscus maniculatus</t>
+  </si>
+  <si>
+    <t>Phalacrocorax auritus</t>
+  </si>
+  <si>
+    <t>Phasianus colchicus</t>
+  </si>
+  <si>
+    <t>Picoides villosus</t>
+  </si>
+  <si>
+    <t>Pipilo erythrophthalmus</t>
+  </si>
+  <si>
+    <t>Poecile carolinensis</t>
+  </si>
+  <si>
+    <t>Quiscalus quiscula</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Rattus rattus</t>
+  </si>
+  <si>
+    <t>Regulus calendula</t>
+  </si>
+  <si>
+    <t>Saimiri boliviensis</t>
+  </si>
+  <si>
+    <t>Sayornis phoebe</t>
+  </si>
+  <si>
+    <t>Scalopus aquaticus</t>
+  </si>
+  <si>
+    <t>Sciurus carolinensis</t>
+  </si>
+  <si>
+    <t>Sciurus niger</t>
+  </si>
+  <si>
+    <t>Sciurus vulgaris</t>
+  </si>
+  <si>
+    <t>Scolopax minor</t>
+  </si>
+  <si>
+    <t>Setophaga citrina</t>
+  </si>
+  <si>
+    <t>Setophaga coronata</t>
+  </si>
+  <si>
+    <t>Setophaga dominica</t>
+  </si>
+  <si>
+    <t>Setophaga petechia</t>
+  </si>
+  <si>
+    <t>Setophaga pinus</t>
+  </si>
+  <si>
+    <t>Sialia sialis</t>
+  </si>
+  <si>
+    <t>Sigmodon hispidus</t>
+  </si>
+  <si>
+    <t>Sitta carolinensis</t>
+  </si>
+  <si>
+    <t>Spatula clypeata</t>
+  </si>
+  <si>
+    <t>Spinus tristis</t>
+  </si>
+  <si>
+    <t>Spizella passerina</t>
+  </si>
+  <si>
+    <t>Spizella pusilla</t>
+  </si>
+  <si>
+    <t>Spizelloides arborea</t>
+  </si>
+  <si>
+    <t>Struthio camelus</t>
+  </si>
+  <si>
+    <t>Sturnus vulgaris</t>
+  </si>
+  <si>
+    <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>Sylvilagus floridanus</t>
+  </si>
+  <si>
+    <t>Tachycineta bicolor</t>
+  </si>
+  <si>
+    <t>Tamias striatus</t>
+  </si>
+  <si>
+    <t>Tamiasciurus hudsonicus</t>
+  </si>
+  <si>
+    <t>Thryothorus ludovicianus</t>
+  </si>
+  <si>
+    <t>Toxostoma rufum</t>
+  </si>
+  <si>
+    <t>Troglodytes aedon</t>
+  </si>
+  <si>
+    <t>Turdus migratorius</t>
+  </si>
+  <si>
+    <t>Tursiops truncatus</t>
+  </si>
+  <si>
+    <t>Vicugna pacos</t>
+  </si>
+  <si>
+    <t>Vireo griseus</t>
+  </si>
+  <si>
+    <t>Vireo olivaceus</t>
+  </si>
+  <si>
+    <t>Zalophus californianus</t>
+  </si>
+  <si>
+    <t>Zenaida macroura</t>
+  </si>
+  <si>
+    <t>Zonotrichia albicollis</t>
   </si>
 </sst>
 </file>
@@ -27568,6 +27973,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
+      <formula1>Sheet2!$F$2:$F$141</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$11</formula1>
     </dataValidation>
@@ -27635,134 +28043,814 @@
       <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="7" t="s">
-        <v>30</v>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="F77" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
+    </row>
+    <row r="80">
+      <c r="F80" s="7" t="s">
+        <v>114</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="7" t="s">
+    </row>
+    <row r="81">
+      <c r="F81" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="7" t="s">
-        <v>26</v>
+    <row r="82">
+      <c r="F82" s="7" t="s">
+        <v>115</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>34</v>
+    </row>
+    <row r="83">
+      <c r="F83" s="7" t="s">
+        <v>116</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>35</v>
+    </row>
+    <row r="84">
+      <c r="F84" s="7" t="s">
+        <v>117</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="7" t="s">
+    </row>
+    <row r="85">
+      <c r="F85" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="7" t="s">
-        <v>34</v>
+    <row r="86">
+      <c r="F86" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="F87" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="F88" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="F91" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="F93" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="F94" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="F95" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="F96" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="F98" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="F99" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="F100" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="F101" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="F102" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="F103" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="F104" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="F105" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="F106" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="F107" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="F108" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="F109" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="F110" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="F111" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="F112" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="F113" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="F114" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="F115" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="F116" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="F117" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="F118" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="F119" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="F120" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="F122" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="F123" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="F124" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="F125" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="F126" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="F127" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="F128" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="F129" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="F130" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="F131" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="F132" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="F133" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="F136" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="F137" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="F139" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="F140" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="F141" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualNonHumanTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -709,6 +709,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
